--- a/biology/Botanique/Symplocaceae/Symplocaceae.xlsx
+++ b/biology/Botanique/Symplocaceae/Symplocaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Symplocaceae (les Symplocacées en français) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique, qui comprend environ 320 espèces du genre Symplocos, auquel l'ancien genre Cordyloblaste a été amalgamé. Ce sont des arbres ou des arbustes à feuilles persistantes largement répandus dans les zones tropicales mais absents d'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Symplocos, dérivé du grec συμπλοκή / symploke, « union ; liaison », en référence aux étamines fusionnées de la fleur.
 </t>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Ericales.
 </t>
@@ -573,12 +589,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[1], DELTA Angio           (12 nov. 2015)[2] et NCBI  (12 nov. 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), DELTA Angio           (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Cordyloblaste Moritzi
 Symplocos Jacquin
-Selon ITIS      (12 nov. 2015)[4] :
+Selon ITIS      (12 nov. 2015) :
 Symplocos Jacq.</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 Jun 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 Jun 2010) :
 genre Symplocos
 Symplocos adenophylla
 Symplocos adenopus
